--- a/NCBI_accession_numbers.xlsx
+++ b/NCBI_accession_numbers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3712fd3ffbaf1ce0/Pulpit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mksie\git_public\FUM_stability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="8_{61075B2A-B0D2-44FB-A526-DB0576E0E57E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5FAF4988-A2D1-448F-9B7A-DF9BECC0EABA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3CE42-1E8A-4B6A-92AB-07981B84A8EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1815" windowWidth="17190" windowHeight="12615" xr2:uid="{5FDE47D6-C1FC-4494-A989-F73EF00DFCF8}"/>
+    <workbookView xWindow="9825" yWindow="2355" windowWidth="17190" windowHeight="12615" xr2:uid="{5FDE47D6-C1FC-4494-A989-F73EF00DFCF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="206">
   <si>
     <t>c11Ua_71_AE</t>
   </si>
@@ -532,18 +532,6 @@
   </si>
   <si>
     <t>Peptoniphilus coxii</t>
-  </si>
-  <si>
-    <t>c12Ua_235_AE</t>
-  </si>
-  <si>
-    <t>c12Ua_236_AE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudoclavibacter spp. </t>
-  </si>
-  <si>
-    <t>to find</t>
   </si>
   <si>
     <t>MW566750</t>
@@ -1026,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBE5C48-41A5-4D1F-AF8C-1454C08B5DD2}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,16 +1029,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1069,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1091,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1113,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1124,7 +1112,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1146,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -2071,7 +2059,7 @@
         <v>16</v>
       </c>
       <c r="D93" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2085,7 +2073,7 @@
         <v>16</v>
       </c>
       <c r="D94" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,13 +2081,13 @@
         <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C95" t="s">
         <v>124</v>
       </c>
       <c r="D95" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,13 +2095,13 @@
         <v>125</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
         <v>126</v>
       </c>
       <c r="D96" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,13 +2109,13 @@
         <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
         <v>126</v>
       </c>
       <c r="D97" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,13 +2123,13 @@
         <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C98" t="s">
         <v>126</v>
       </c>
       <c r="D98" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,13 +2137,13 @@
         <v>129</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
         <v>126</v>
       </c>
       <c r="D99" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,13 +2151,13 @@
         <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C100" t="s">
         <v>126</v>
       </c>
       <c r="D100" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,13 +2165,13 @@
         <v>131</v>
       </c>
       <c r="B101" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C101" t="s">
         <v>126</v>
       </c>
       <c r="D101" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,13 +2179,13 @@
         <v>132</v>
       </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C102" t="s">
         <v>126</v>
       </c>
       <c r="D102" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,13 +2193,13 @@
         <v>133</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C103" t="s">
         <v>126</v>
       </c>
       <c r="D103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2219,13 +2207,13 @@
         <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C104" t="s">
         <v>126</v>
       </c>
       <c r="D104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,13 +2221,13 @@
         <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C105" t="s">
         <v>126</v>
       </c>
       <c r="D105" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2247,13 +2235,13 @@
         <v>136</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C106" t="s">
         <v>126</v>
       </c>
       <c r="D106" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,13 +2249,13 @@
         <v>137</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C107" t="s">
         <v>126</v>
       </c>
       <c r="D107" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,13 +2263,13 @@
         <v>138</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C108" t="s">
         <v>126</v>
       </c>
       <c r="D108" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2289,13 +2277,13 @@
         <v>139</v>
       </c>
       <c r="B109" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C109" t="s">
         <v>126</v>
       </c>
       <c r="D109" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2303,13 +2291,13 @@
         <v>140</v>
       </c>
       <c r="B110" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C110" t="s">
         <v>126</v>
       </c>
       <c r="D110" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,13 +2305,13 @@
         <v>141</v>
       </c>
       <c r="B111" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C111" t="s">
         <v>126</v>
       </c>
       <c r="D111" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2331,13 +2319,13 @@
         <v>142</v>
       </c>
       <c r="B112" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C112" t="s">
         <v>126</v>
       </c>
       <c r="D112" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,13 +2333,13 @@
         <v>50</v>
       </c>
       <c r="B113" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C113" t="s">
         <v>53</v>
       </c>
       <c r="D113" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2359,13 +2347,13 @@
         <v>51</v>
       </c>
       <c r="B114" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C114" t="s">
         <v>54</v>
       </c>
       <c r="D114" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2373,13 +2361,13 @@
         <v>143</v>
       </c>
       <c r="B115" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C115" t="s">
         <v>144</v>
       </c>
       <c r="D115" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,13 +2375,13 @@
         <v>145</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C116" t="s">
         <v>149</v>
       </c>
       <c r="D116" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,13 +2389,13 @@
         <v>146</v>
       </c>
       <c r="B117" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C117" t="s">
         <v>150</v>
       </c>
       <c r="D117" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2415,13 +2403,13 @@
         <v>147</v>
       </c>
       <c r="B118" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C118" t="s">
         <v>151</v>
       </c>
       <c r="D118" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,13 +2417,13 @@
         <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C119" t="s">
         <v>152</v>
       </c>
       <c r="D119" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,13 +2431,13 @@
         <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C120" t="s">
         <v>155</v>
       </c>
       <c r="D120" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,13 +2445,13 @@
         <v>154</v>
       </c>
       <c r="B121" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C121" t="s">
         <v>155</v>
       </c>
       <c r="D121" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,13 +2459,13 @@
         <v>156</v>
       </c>
       <c r="B122" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C122" t="s">
         <v>157</v>
       </c>
       <c r="D122" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,13 +2473,13 @@
         <v>158</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C123" t="s">
         <v>159</v>
       </c>
       <c r="D123" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,13 +2487,13 @@
         <v>52</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C124" t="s">
         <v>54</v>
       </c>
       <c r="D124" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,13 +2501,13 @@
         <v>160</v>
       </c>
       <c r="B125" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s">
         <v>161</v>
       </c>
       <c r="D125" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,13 +2515,13 @@
         <v>162</v>
       </c>
       <c r="B126" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C126" t="s">
         <v>163</v>
       </c>
       <c r="D126" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,41 +2529,13 @@
         <v>164</v>
       </c>
       <c r="B127" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C127" t="s">
         <v>165</v>
       </c>
       <c r="D127" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>166</v>
-      </c>
-      <c r="B128" t="s">
-        <v>169</v>
-      </c>
-      <c r="C128" t="s">
-        <v>168</v>
-      </c>
-      <c r="D128" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>167</v>
-      </c>
-      <c r="B129" t="s">
-        <v>169</v>
-      </c>
-      <c r="C129" t="s">
-        <v>168</v>
-      </c>
-      <c r="D129" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/NCBI_accession_numbers.xlsx
+++ b/NCBI_accession_numbers.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mksie\git_public\FUM_stability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3CE42-1E8A-4B6A-92AB-07981B84A8EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21A3DEC-0637-4CC6-B187-50FDDBA65954}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9825" yWindow="2355" windowWidth="17190" windowHeight="12615" xr2:uid="{5FDE47D6-C1FC-4494-A989-F73EF00DFCF8}"/>
+    <workbookView xWindow="7125" yWindow="870" windowWidth="21405" windowHeight="14250" xr2:uid="{5FDE47D6-C1FC-4494-A989-F73EF00DFCF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="302">
   <si>
     <t>c11Ua_71_AE</t>
   </si>
@@ -414,9 +417,6 @@
     <t>c7Ua_79_AE</t>
   </si>
   <si>
-    <t>Brevibacterium spp.</t>
-  </si>
-  <si>
     <t>c7Ua_80_AE</t>
   </si>
   <si>
@@ -483,12 +483,6 @@
     <t>c12Ua_43_AN</t>
   </si>
   <si>
-    <t xml:space="preserve">Staphylococcus spp. </t>
-  </si>
-  <si>
-    <t>Staphylococcus spp.</t>
-  </si>
-  <si>
     <t>Propionimicrobium lymphophilum</t>
   </si>
   <si>
@@ -525,9 +519,6 @@
     <t>c15Ua_103_AE</t>
   </si>
   <si>
-    <t>Bacillus spp.</t>
-  </si>
-  <si>
     <t>c26Ua_12_AN</t>
   </si>
   <si>
@@ -652,6 +643,306 @@
   </si>
   <si>
     <t>MW567140</t>
+  </si>
+  <si>
+    <t>Brevibacterium sp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staphylococcus sp. </t>
+  </si>
+  <si>
+    <t>Staphylococcus sp.</t>
+  </si>
+  <si>
+    <t>Bacillus sp.</t>
+  </si>
+  <si>
+    <t>Limosilactobacillus sp.</t>
+  </si>
+  <si>
+    <t>Lactobacillus sp.</t>
+  </si>
+  <si>
+    <t>MW567700</t>
+  </si>
+  <si>
+    <t>MW567701</t>
+  </si>
+  <si>
+    <t>MW567702</t>
+  </si>
+  <si>
+    <t>MW567703</t>
+  </si>
+  <si>
+    <t>MW567704</t>
+  </si>
+  <si>
+    <t>MW574259</t>
+  </si>
+  <si>
+    <t>MW574260</t>
+  </si>
+  <si>
+    <t>MW574261</t>
+  </si>
+  <si>
+    <t>MW574262</t>
+  </si>
+  <si>
+    <t>MW574263</t>
+  </si>
+  <si>
+    <t>MW574264</t>
+  </si>
+  <si>
+    <t>MW574265</t>
+  </si>
+  <si>
+    <t>MW574266</t>
+  </si>
+  <si>
+    <t>MW574267</t>
+  </si>
+  <si>
+    <t>MW574268</t>
+  </si>
+  <si>
+    <t>MW574269</t>
+  </si>
+  <si>
+    <t>MW574270</t>
+  </si>
+  <si>
+    <t>MW574271</t>
+  </si>
+  <si>
+    <t>MW574272</t>
+  </si>
+  <si>
+    <t>MW574273</t>
+  </si>
+  <si>
+    <t>MW574274</t>
+  </si>
+  <si>
+    <t>MW574275</t>
+  </si>
+  <si>
+    <t>MW574276</t>
+  </si>
+  <si>
+    <t>MW574277</t>
+  </si>
+  <si>
+    <t>MW574278</t>
+  </si>
+  <si>
+    <t>MW574279</t>
+  </si>
+  <si>
+    <t>MW574280</t>
+  </si>
+  <si>
+    <t>MW574281</t>
+  </si>
+  <si>
+    <t>MW574282</t>
+  </si>
+  <si>
+    <t>MW574283</t>
+  </si>
+  <si>
+    <t>MW574284</t>
+  </si>
+  <si>
+    <t>MW574285</t>
+  </si>
+  <si>
+    <t>MW574286</t>
+  </si>
+  <si>
+    <t>MW574287</t>
+  </si>
+  <si>
+    <t>MW574288</t>
+  </si>
+  <si>
+    <t>MW574289</t>
+  </si>
+  <si>
+    <t>MW574290</t>
+  </si>
+  <si>
+    <t>MW574291</t>
+  </si>
+  <si>
+    <t>MW574292</t>
+  </si>
+  <si>
+    <t>MW574293</t>
+  </si>
+  <si>
+    <t>MW574294</t>
+  </si>
+  <si>
+    <t>MW574295</t>
+  </si>
+  <si>
+    <t>MW574296</t>
+  </si>
+  <si>
+    <t>MW574297</t>
+  </si>
+  <si>
+    <t>MW574298</t>
+  </si>
+  <si>
+    <t>MW574299</t>
+  </si>
+  <si>
+    <t>MW574300</t>
+  </si>
+  <si>
+    <t>MW574301</t>
+  </si>
+  <si>
+    <t>MW574302</t>
+  </si>
+  <si>
+    <t>MW574303</t>
+  </si>
+  <si>
+    <t>MW574304</t>
+  </si>
+  <si>
+    <t>MW574305</t>
+  </si>
+  <si>
+    <t>MW574306</t>
+  </si>
+  <si>
+    <t>MW574307</t>
+  </si>
+  <si>
+    <t>MW574308</t>
+  </si>
+  <si>
+    <t>MW574309</t>
+  </si>
+  <si>
+    <t>MW574310</t>
+  </si>
+  <si>
+    <t>MW574311</t>
+  </si>
+  <si>
+    <t>MW574312</t>
+  </si>
+  <si>
+    <t>MW574313</t>
+  </si>
+  <si>
+    <t>MW574314</t>
+  </si>
+  <si>
+    <t>MW574315</t>
+  </si>
+  <si>
+    <t>MW574316</t>
+  </si>
+  <si>
+    <t>MW574317</t>
+  </si>
+  <si>
+    <t>MW574318</t>
+  </si>
+  <si>
+    <t>MW574319</t>
+  </si>
+  <si>
+    <t>MW574320</t>
+  </si>
+  <si>
+    <t>MW574321</t>
+  </si>
+  <si>
+    <t>MW574322</t>
+  </si>
+  <si>
+    <t>MW574323</t>
+  </si>
+  <si>
+    <t>MW574324</t>
+  </si>
+  <si>
+    <t>MW574325</t>
+  </si>
+  <si>
+    <t>MW574326</t>
+  </si>
+  <si>
+    <t>MW574327</t>
+  </si>
+  <si>
+    <t>MW574328</t>
+  </si>
+  <si>
+    <t>MW574329</t>
+  </si>
+  <si>
+    <t>MW574330</t>
+  </si>
+  <si>
+    <t>MW574331</t>
+  </si>
+  <si>
+    <t>MW574332</t>
+  </si>
+  <si>
+    <t>MW574333</t>
+  </si>
+  <si>
+    <t>MW574334</t>
+  </si>
+  <si>
+    <t>MW574335</t>
+  </si>
+  <si>
+    <t>MW574336</t>
+  </si>
+  <si>
+    <t>MW574337</t>
+  </si>
+  <si>
+    <t>MW574338</t>
+  </si>
+  <si>
+    <t>MW574339</t>
+  </si>
+  <si>
+    <t>MW574340</t>
+  </si>
+  <si>
+    <t>MW574341</t>
+  </si>
+  <si>
+    <t>MW574342</t>
+  </si>
+  <si>
+    <t>MW574343</t>
+  </si>
+  <si>
+    <t>MW574344</t>
+  </si>
+  <si>
+    <t>MW574345</t>
+  </si>
+  <si>
+    <t>MW574346</t>
+  </si>
+  <si>
+    <t>MW574347</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBE5C48-41A5-4D1F-AF8C-1454C08B5DD2}">
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128:D129"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,173 +1320,209 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>142</v>
+      </c>
+      <c r="B12" t="s">
+        <v>182</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>264</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -1203,10 +1530,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -1214,21 +1544,27 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>210</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>267</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1236,32 +1572,41 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>268</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1269,10 +1614,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>269</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1280,10 +1628,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>270</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1291,10 +1642,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="B24" t="s">
+        <v>272</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1302,21 +1656,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>103</v>
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>224</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>276</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1324,10 +1684,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>277</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1335,65 +1698,83 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
+        <v>212</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>273</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>97</v>
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>274</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>98</v>
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>184</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
+        <v>189</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>275</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
         <v>14</v>
@@ -1401,76 +1782,97 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>185</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>183</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>203</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>150</v>
+      </c>
+      <c r="B37" t="s">
+        <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>151</v>
+      </c>
+      <c r="B38" t="s">
+        <v>188</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>218</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>279</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -1478,10 +1880,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>278</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -1489,10 +1894,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>280</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -1500,54 +1908,69 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>198</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>157</v>
+      </c>
+      <c r="B45" t="s">
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>215</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>281</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -1555,43 +1978,55 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>155</v>
+      </c>
+      <c r="B48" t="s">
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>219</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>282</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
@@ -1599,10 +2034,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>283</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
@@ -1610,21 +2048,27 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>216</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>284</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
         <v>14</v>
@@ -1632,10 +2076,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
+        <v>285</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
@@ -1643,21 +2090,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>221</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>286</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
@@ -1665,32 +2118,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>213</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>160</v>
+      </c>
+      <c r="B59" t="s">
+        <v>201</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>287</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -1698,10 +2160,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>116</v>
+      </c>
+      <c r="B61" t="s">
+        <v>288</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
         <v>14</v>
@@ -1709,10 +2174,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>292</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -1720,7 +2188,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>69</v>
+      </c>
+      <c r="B63" t="s">
+        <v>293</v>
       </c>
       <c r="C63" t="s">
         <v>45</v>
@@ -1731,7 +2202,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>289</v>
       </c>
       <c r="C64" t="s">
         <v>45</v>
@@ -1742,10 +2216,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>294</v>
       </c>
       <c r="C65" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
@@ -1753,7 +2230,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>295</v>
       </c>
       <c r="C66" t="s">
         <v>45</v>
@@ -1764,10 +2244,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>290</v>
       </c>
       <c r="C67" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
@@ -1775,7 +2258,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>291</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
@@ -1786,21 +2272,27 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>217</v>
       </c>
       <c r="C69" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>48</v>
+      </c>
+      <c r="B70" t="s">
+        <v>297</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
         <v>14</v>
@@ -1808,10 +2300,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>94</v>
+      </c>
+      <c r="B71" t="s">
+        <v>296</v>
       </c>
       <c r="C71" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
         <v>14</v>
@@ -1819,7 +2314,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>95</v>
+      </c>
+      <c r="B72" t="s">
+        <v>298</v>
       </c>
       <c r="C72" t="s">
         <v>49</v>
@@ -1830,7 +2328,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>96</v>
+      </c>
+      <c r="B73" t="s">
+        <v>299</v>
       </c>
       <c r="C73" t="s">
         <v>49</v>
@@ -1841,21 +2342,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>222</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>300</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -1863,10 +2370,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>301</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -1874,32 +2384,41 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>223</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>123</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>225</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
         <v>14</v>
@@ -1907,10 +2426,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>226</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -1918,10 +2440,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>227</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
@@ -1929,10 +2454,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>100</v>
+      </c>
+      <c r="B82" t="s">
+        <v>228</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
@@ -1940,10 +2468,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>229</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D83" t="s">
         <v>14</v>
@@ -1951,65 +2482,83 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>132</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>133</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>134</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>135</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>136</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>230</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -2017,10 +2566,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="B90" t="s">
+        <v>231</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D90" t="s">
         <v>14</v>
@@ -2028,10 +2580,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+      <c r="B91" t="s">
+        <v>232</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -2039,10 +2594,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>233</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D92" t="s">
         <v>14</v>
@@ -2050,492 +2608,562 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D93" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D94" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="C95" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="C97" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="D97" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
       <c r="C98" t="s">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B99" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C99" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D99" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C100" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D100" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B101" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D101" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D102" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C103" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D103" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B104" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C104" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D104" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B105" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D105" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="D106" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="C107" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="D107" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="C108" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="D108" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="C109" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="D109" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="B110" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="C110" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="D110" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B111" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D111" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B112" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C112" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="D112" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D113" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="B114" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C114" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D114" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B115" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C115" t="s">
-        <v>144</v>
+        <v>202</v>
       </c>
       <c r="D115" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B116" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C116" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="D116" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="B117" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="D117" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>147</v>
+      <c r="A118" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B118" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="C118" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="D118" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="B119" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="C119" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="D120" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="B122" t="s">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>157</v>
+        <v>35</v>
       </c>
       <c r="D122" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="C123" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="D123" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="C124" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D124" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="B125" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="C125" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="D125" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="B126" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="D126" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c r="B127" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="D127" t="s">
-        <v>200</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>77</v>
+      </c>
+      <c r="B128" t="s">
+        <v>246</v>
+      </c>
+      <c r="C128" t="s">
+        <v>35</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>78</v>
+      </c>
+      <c r="B129" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B130" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>120</v>
+      </c>
+      <c r="B131" t="s">
+        <v>258</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>59</v>
+      </c>
+      <c r="B132" t="s">
+        <v>259</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
